--- a/src/assets/files/AuthorArranger Sample.xlsx
+++ b/src/assets/files/AuthorArranger Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="56295" yWindow="8940" windowWidth="30960" windowHeight="17625" activeTab="1"/>
+    <workbookView xWindow="56295" yWindow="8940" windowWidth="30960" windowHeight="17625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="1" r:id="rId1"/>
@@ -17264,7 +17264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17562,7 +17562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/files/AuthorArranger Sample.xlsx
+++ b/src/assets/files/AuthorArranger Sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\projects\nci-webtools-dceg-author-arranger\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\nci-webtools-dceg-author-arranger\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC6467-B485-4A19-A031-81190D45B70B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56295" yWindow="8940" windowWidth="30960" windowHeight="17625" activeTab="2"/>
+    <workbookView xWindow="56295" yWindow="8940" windowWidth="30960" windowHeight="17625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="1" r:id="rId1"/>
@@ -279,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -682,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17261,10 +17262,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17559,10 +17560,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
